--- a/PathPlanner/UserStudyData/Data4StatProfessor.xlsx
+++ b/PathPlanner/UserStudyData/Data4StatProfessor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="350">
   <si>
     <t>subject</t>
   </si>
@@ -1063,6 +1063,12 @@
   </si>
   <si>
     <t>Is there any correlation between performance and gender/videogame experience?</t>
+  </si>
+  <si>
+    <t>Is there significance across flying methods for people who used full autonomy?</t>
+  </si>
+  <si>
+    <t>Did people start scenario 1 first scored significantly better in sliding autonomy in scenario 2 (and vice versa)?</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1426,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15440,7 +15446,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18454,16 +18460,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="72.28515625" customWidth="1"/>
+    <col min="2" max="2" width="101.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
@@ -18507,6 +18513,17 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
